--- a/Solution/ProjetoX/teste.xlsx
+++ b/Solution/ProjetoX/teste.xlsx
@@ -12,39 +12,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>Horário de entrada</t>
-  </si>
-  <si>
-    <t>Horário de saída</t>
-  </si>
-  <si>
-    <t>Situação do atendimento</t>
-  </si>
-  <si>
-    <t>Tempo total</t>
-  </si>
-  <si>
-    <t>Valor total</t>
-  </si>
-  <si>
-    <t>08-12-2019 16:10</t>
-  </si>
-  <si>
-    <t>08-12-2019 17:00</t>
-  </si>
-  <si>
-    <t>Atendimento normal</t>
-  </si>
-  <si>
-    <t>00:50</t>
-  </si>
-  <si>
-    <t>R$ 30,00</t>
-  </si>
-  <si>
-    <t>R$ 1.030,00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>Nº do contrato</t>
+  </si>
+  <si>
+    <t>Nome do paciente</t>
+  </si>
+  <si>
+    <t>Valor contratado</t>
+  </si>
+  <si>
+    <t>Valor executado</t>
+  </si>
+  <si>
+    <t>Diferença</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Henrique Nitatori</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>R$ 1.090,00</t>
+  </si>
+  <si>
+    <t>-R$ 90,00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -68,21 +77,21 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
+      <sz val="14.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
       <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +106,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,9 +174,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -150,11 +189,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.8984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.8671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.2109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="16.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -174,55 +213,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="true">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="3">
         <v>10</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Solution/ProjetoX/teste.xlsx
+++ b/Solution/ProjetoX/teste.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros" r:id="rId3" sheetId="1"/>
+    <sheet name="Relatorios" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Nº do contrato</t>
   </si>
@@ -41,7 +41,7 @@
     <t>R$ 1.090,00</t>
   </si>
   <si>
-    <t>-R$ 90,00</t>
+    <t>R$ 90,00</t>
   </si>
   <si>
     <t>2</t>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>-R$ 1.000,00</t>
   </si>
 </sst>
 </file>
@@ -110,32 +113,32 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="30"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -193,7 +196,7 @@
     <col min="2" max="2" width="28.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="27.09765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.2109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.2265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="16.41015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -261,7 +264,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Solution/ProjetoX/teste.xlsx
+++ b/Solution/ProjetoX/teste.xlsx
@@ -6,45 +6,57 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros" r:id="rId3" sheetId="1"/>
+    <sheet name="Relatorios" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>Horário de entrada</t>
-  </si>
-  <si>
-    <t>Horário de saída</t>
-  </si>
-  <si>
-    <t>Situação do atendimento</t>
-  </si>
-  <si>
-    <t>Tempo total</t>
-  </si>
-  <si>
-    <t>Valor total</t>
-  </si>
-  <si>
-    <t>08-12-2019 16:10</t>
-  </si>
-  <si>
-    <t>08-12-2019 17:00</t>
-  </si>
-  <si>
-    <t>Atendimento normal</t>
-  </si>
-  <si>
-    <t>00:50</t>
-  </si>
-  <si>
-    <t>R$ 30,00</t>
-  </si>
-  <si>
-    <t>R$ 1.030,00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>Nº do contrato</t>
+  </si>
+  <si>
+    <t>Nome do paciente</t>
+  </si>
+  <si>
+    <t>Valor contratado</t>
+  </si>
+  <si>
+    <t>Valor executado</t>
+  </si>
+  <si>
+    <t>Diferença</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Henrique Nitatori</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>R$ 1.090,00</t>
+  </si>
+  <si>
+    <t>R$ 90,00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-R$ 1.000,00</t>
   </si>
 </sst>
 </file>
@@ -68,21 +80,21 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
+      <sz val="14.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
       <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +109,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,9 +177,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -150,11 +192,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.8984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.8671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.2109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="16.41015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -174,55 +216,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="true">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="3">
         <v>10</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
